--- a/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Card.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\src\assets\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4BA36-1192-4EF7-A570-84F3C484B415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99CE15B-BB1E-4BC5-9F2F-1B98C1741565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>company_code</t>
   </si>
@@ -70,13 +70,22 @@
   </si>
   <si>
     <t>NID</t>
+  </si>
+  <si>
+    <t>104100</t>
+  </si>
+  <si>
+    <t>CAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +155,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,9 +224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,26 +259,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,26 +294,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -496,8 +482,8 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
@@ -537,20 +523,20 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
-        <v>40310</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45789</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40208</v>
+      </c>
+      <c r="F2" s="7">
+        <v>45321</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
